--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3538.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3538.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.883140870041574</v>
+        <v>1.037447571754456</v>
       </c>
       <c r="B1">
-        <v>2.156111138974738</v>
+        <v>0.9730305075645447</v>
       </c>
       <c r="C1">
-        <v>2.254056168535748</v>
+        <v>0.9708099365234375</v>
       </c>
       <c r="D1">
-        <v>2.668923692409001</v>
+        <v>1.199261426925659</v>
       </c>
       <c r="E1">
-        <v>3.022849120135445</v>
+        <v>1.101291537284851</v>
       </c>
     </row>
   </sheetData>
